--- a/biology/Médecine/Échelle_de_dépression_postnatale_d'Édimbourg/Échelle_de_dépression_postnatale_d'Édimbourg.xlsx
+++ b/biology/Médecine/Échelle_de_dépression_postnatale_d'Édimbourg/Échelle_de_dépression_postnatale_d'Édimbourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_d%C3%A9pression_postnatale_d%27%C3%89dimbourg</t>
+          <t>Échelle_de_dépression_postnatale_d'Édimbourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'échelle de dépression post-natale d’Édimbourg (EPDS pour l'anglais : Edinburgh Postnatal Depression Scale) est le principal instrument de dépistage de dépression des mères dans le post-partum.
 Elle a été élaborée en 1987 par J.L. Cox, J.M. Holden et R. Sagovsky.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_d%C3%A9pression_postnatale_d%27%C3%89dimbourg</t>
+          <t>Échelle_de_dépression_postnatale_d'Édimbourg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'échelle a été élaborée en 1987 par J.L. Cox, J.M. Holden et R. Sagovsky dans les centres de santé de Livingston et Édimbourg[1],
-En 1992, P. Hannah a montré que l’EPDS permettait, en mesurant l’intensité de la symptomatologie dépressive du blues du post-partum, de repérer les mères ayant un risque élevé de développer ultérieurement une dépression périnatale[2].
-L'EPDS se présente sous la forme d'un auto-questionnaire à dix items pouvant être côtés de zéro à trois. Les mères obtenant un score de douze ou plus sont définies comme étant à risque[1].
-Reconnue comme principal instrument de dépistage de dépression des mères dans le post-partum, l'EPDS a été traduite et validée en plusieurs langues dont le français en 1998 par Guedeney et Fermanian et l'arabe en 2020[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelle a été élaborée en 1987 par J.L. Cox, J.M. Holden et R. Sagovsky dans les centres de santé de Livingston et Édimbourg,
+En 1992, P. Hannah a montré que l’EPDS permettait, en mesurant l’intensité de la symptomatologie dépressive du blues du post-partum, de repérer les mères ayant un risque élevé de développer ultérieurement une dépression périnatale.
+L'EPDS se présente sous la forme d'un auto-questionnaire à dix items pouvant être côtés de zéro à trois. Les mères obtenant un score de douze ou plus sont définies comme étant à risque.
+Reconnue comme principal instrument de dépistage de dépression des mères dans le post-partum, l'EPDS a été traduite et validée en plusieurs langues dont le français en 1998 par Guedeney et Fermanian et l'arabe en 2020.
 </t>
         </is>
       </c>
